--- a/Word-Printer/samples/Level4/四层项目/XXX项目/15 ZRXX-20000-BA-P-01 IT服务的财务管理程序记录/ZRXX-20000-BA-R-01 成本预算与核算表-XXX项目.xlsx
+++ b/Word-Printer/samples/Level4/四层项目/XXX项目/15 ZRXX-20000-BA-P-01 IT服务的财务管理程序记录/ZRXX-20000-BA-R-01 成本预算与核算表-XXX项目.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\WordPrinter\Word-Printer\samples\Level4\四层项目\XXX项目\15 ZRXX-20000-BA-P-01 IT服务的财务管理程序记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-32770" yWindow="-32770" windowWidth="19100" windowHeight="11020"/>
+    <workbookView xWindow="-32775" yWindow="-32775" windowWidth="19095" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="成本预算与核算表" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -188,13 +193,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="184" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="186" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -383,15 +388,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFD40000"/>
       <name val="幼圆"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFBF0000"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFC90000"/>
       <name val="幼圆"/>
       <family val="3"/>
       <charset val="134"/>
@@ -762,79 +774,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="24" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,103 +855,103 @@
     <xf numFmtId="10" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="30" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="30" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="30" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="31" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="31" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="32" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,9 +977,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC90000"/>
+      <color rgb="FFBF0000"/>
+      <color rgb="FFD40000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1016,7 +1038,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1051,7 +1073,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1262,76 +1284,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="1.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="1.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="2.125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="14" customWidth="1"/>
     <col min="9" max="9" width="5.25" style="14" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="5.125" style="14" customWidth="1"/>
     <col min="11" max="11" width="4.75" style="14" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="14" customWidth="1"/>
     <col min="13" max="13" width="5.75" style="14" customWidth="1"/>
-    <col min="14" max="14" width="2.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="2.125" style="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="14" customWidth="1"/>
     <col min="16" max="16" width="11.25" style="6" customWidth="1"/>
     <col min="17" max="17" width="12.25" style="7" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-    </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+    </row>
+    <row r="3" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
@@ -1352,40 +1374,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="52" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54" t="s">
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
       <c r="P4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="56" t="s">
+      <c r="Q4" s="58" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1430,7 @@
       <c r="P5" s="59"/>
       <c r="Q5" s="60"/>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
@@ -1437,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="47"/>
       <c r="B7" s="48"/>
       <c r="C7" s="49" t="s">
@@ -1464,7 +1486,7 @@
       <c r="P7" s="48"/>
       <c r="Q7" s="32"/>
     </row>
-    <row r="8" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
@@ -1472,27 +1494,27 @@
         <f>B9+B10</f>
         <v>61000</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="50">
         <f>C9+C10</f>
         <v>18300</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50">
         <f>G9+G10</f>
         <v>12220</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46">
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50">
         <f>K9+K10</f>
         <v>16280</v>
       </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="18">
         <f>C8+G8+K8</f>
         <v>46800</v>
@@ -1503,31 +1525,31 @@
       </c>
       <c r="Q8" s="31"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="20">
         <v>60000</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="51">
         <v>18000</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51">
         <v>12000</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45">
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51">
         <v>16000</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
       <c r="O9" s="20">
         <f t="shared" ref="O9:O20" si="0">SUM(C9:N9)</f>
         <v>46000</v>
@@ -1538,31 +1560,31 @@
       </c>
       <c r="Q9" s="34"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="20">
         <v>1000</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="51">
         <v>300</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45">
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51">
         <v>220</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45">
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51">
         <v>280</v>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
       <c r="O10" s="20">
         <f t="shared" si="0"/>
         <v>800</v>
@@ -1573,7 +1595,7 @@
       </c>
       <c r="Q10" s="34"/>
     </row>
-    <row r="11" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
         <v>13</v>
       </c>
@@ -1581,27 +1603,27 @@
         <f>B12+B13+B14+B15+B16+B17+B18+B19+B20</f>
         <v>189000</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="50">
         <f>C12+C13+C14+C15+C16+C17+C18+C19+C20</f>
         <v>55900</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46">
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50">
         <f>G12+G13+G14+G15+G16+G17+G18+G19+G20</f>
         <v>40200</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46">
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50">
         <f>K12+K13+K14+K15+K16+K17+K18+K19+K20</f>
         <v>50700</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
       <c r="O11" s="18">
         <f>C11+G11+K11</f>
         <v>146800</v>
@@ -1612,31 +1634,31 @@
       </c>
       <c r="Q11" s="31"/>
     </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="23">
         <v>5000</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="51">
         <v>2000</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51">
         <v>1000</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45">
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51">
         <v>2000</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
       <c r="O12" s="20">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -1647,31 +1669,31 @@
       </c>
       <c r="Q12" s="35"/>
     </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="23">
         <v>3000</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="51">
         <v>1100</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45">
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51">
         <v>700</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45">
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51">
         <v>1000</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
       <c r="O13" s="20">
         <f t="shared" si="0"/>
         <v>2800</v>
@@ -1682,31 +1704,31 @@
       </c>
       <c r="Q13" s="35"/>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="23">
         <v>10000</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="51">
         <v>3000</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51">
         <v>1800</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45">
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51">
         <v>2400</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
       <c r="O14" s="20">
         <f t="shared" si="0"/>
         <v>7200</v>
@@ -1717,31 +1739,31 @@
       </c>
       <c r="Q14" s="35"/>
     </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="23">
         <v>30000</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="51">
         <v>8300</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45">
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51">
         <v>7200</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45">
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51">
         <v>6200</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
       <c r="O15" s="20">
         <f t="shared" si="0"/>
         <v>21700</v>
@@ -1752,31 +1774,31 @@
       </c>
       <c r="Q15" s="35"/>
     </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="23">
         <v>61000</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="51">
         <v>18000</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45">
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51">
         <v>10000</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45">
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51">
         <v>15000</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
       <c r="O16" s="20">
         <f t="shared" si="0"/>
         <v>43000</v>
@@ -1787,31 +1809,31 @@
       </c>
       <c r="Q16" s="35"/>
     </row>
-    <row r="17" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="23">
         <v>30000</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="51">
         <v>8000</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45">
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51">
         <v>6000</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45">
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51">
         <v>9100</v>
       </c>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
       <c r="O17" s="20">
         <f t="shared" si="0"/>
         <v>23100</v>
@@ -1822,31 +1844,31 @@
       </c>
       <c r="Q17" s="35"/>
     </row>
-    <row r="18" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="23">
         <v>20000</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="51">
         <v>6000</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45">
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51">
         <v>5000</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45">
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51">
         <v>6000</v>
       </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
       <c r="O18" s="20">
         <f t="shared" si="0"/>
         <v>17000</v>
@@ -1857,31 +1879,31 @@
       </c>
       <c r="Q18" s="35"/>
     </row>
-    <row r="19" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="23">
         <v>10000</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="51">
         <v>2500</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45">
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51">
         <v>2000</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45">
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51">
         <v>3000</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
       <c r="O19" s="20">
         <f t="shared" si="0"/>
         <v>7500</v>
@@ -1892,31 +1914,31 @@
       </c>
       <c r="Q19" s="35"/>
     </row>
-    <row r="20" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="23">
         <v>20000</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="51">
         <v>7000</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45">
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51">
         <v>6500</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45">
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51">
         <v>6000</v>
       </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
       <c r="O20" s="20">
         <f t="shared" si="0"/>
         <v>19500</v>
@@ -1927,31 +1949,31 @@
       </c>
       <c r="Q20" s="35"/>
     </row>
-    <row r="21" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="33" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="18">
         <v>15000</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="50">
         <v>5000</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46">
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50">
         <v>5000</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46">
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50">
         <v>5000</v>
       </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
       <c r="O21" s="18">
         <f>C21+G21+K21</f>
         <v>15000</v>
@@ -1962,7 +1984,7 @@
       </c>
       <c r="Q21" s="31"/>
     </row>
-    <row r="22" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="33" t="s">
         <v>32</v>
       </c>
@@ -1970,27 +1992,27 @@
         <f>B8+B11+B21</f>
         <v>265000</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="50">
         <f>C8+C11+C21</f>
         <v>79200</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46">
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50">
         <f>G8+G11+G21</f>
         <v>57420</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46">
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50">
         <f>K8+K11+K21</f>
         <v>71980</v>
       </c>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
       <c r="O22" s="18">
         <f>+O11+O8+O21</f>
         <v>208600</v>
@@ -2001,7 +2023,7 @@
       </c>
       <c r="Q22" s="31"/>
     </row>
-    <row r="23" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="33" t="s">
         <v>14</v>
       </c>
@@ -2009,29 +2031,29 @@
         <f>B22-O22</f>
         <v>56400</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45" t="s">
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
       <c r="O23" s="21"/>
       <c r="P23" s="25"/>
       <c r="Q23" s="36"/>
     </row>
-    <row r="24" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="33" t="s">
         <v>15</v>
       </c>
@@ -2039,92 +2061,92 @@
         <f>B23/B22</f>
         <v>0.21283018867924527</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45" t="s">
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
       <c r="O24" s="27"/>
       <c r="P24" s="25"/>
       <c r="Q24" s="36"/>
     </row>
-    <row r="25" spans="1:17" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
       <c r="Q25" s="38"/>
     </row>
-    <row r="26" spans="1:17" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
       <c r="Q26" s="38"/>
     </row>
-    <row r="27" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
       <c r="Q27" s="40"/>
     </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2142,7 +2164,7 @@
       <c r="O28" s="2"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2160,7 +2182,7 @@
       <c r="O29" s="2"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2178,7 +2200,7 @@
       <c r="O30" s="2"/>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2196,7 +2218,7 @@
       <c r="O31" s="2"/>
       <c r="Q31" s="13"/>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2214,7 +2236,7 @@
       <c r="O32" s="2"/>
       <c r="Q32" s="13"/>
     </row>
-    <row r="33" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2232,7 +2254,7 @@
       <c r="O33" s="2"/>
       <c r="Q33" s="13"/>
     </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2250,7 +2272,7 @@
       <c r="O34" s="2"/>
       <c r="Q34" s="13"/>
     </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2268,7 +2290,7 @@
       <c r="O35" s="2"/>
       <c r="Q35" s="13"/>
     </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2286,7 +2308,7 @@
       <c r="O36" s="2"/>
       <c r="Q36" s="13"/>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2304,7 +2326,7 @@
       <c r="O37" s="2"/>
       <c r="Q37" s="13"/>
     </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2322,7 +2344,7 @@
       <c r="O38" s="2"/>
       <c r="Q38" s="13"/>
     </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2340,7 +2362,7 @@
       <c r="O39" s="2"/>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2358,7 +2380,7 @@
       <c r="O40" s="2"/>
       <c r="Q40" s="13"/>
     </row>
-    <row r="41" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2376,7 +2398,7 @@
       <c r="O41" s="2"/>
       <c r="Q41" s="13"/>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2394,7 +2416,7 @@
       <c r="O42" s="2"/>
       <c r="Q42" s="13"/>
     </row>
-    <row r="43" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2412,7 +2434,7 @@
       <c r="O43" s="2"/>
       <c r="Q43" s="13"/>
     </row>
-    <row r="44" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2430,7 +2452,7 @@
       <c r="O44" s="2"/>
       <c r="Q44" s="13"/>
     </row>
-    <row r="45" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2448,7 +2470,7 @@
       <c r="O45" s="2"/>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2466,7 +2488,7 @@
       <c r="O46" s="2"/>
       <c r="Q46" s="13"/>
     </row>
-    <row r="47" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2484,7 +2506,7 @@
       <c r="O47" s="2"/>
       <c r="Q47" s="13"/>
     </row>
-    <row r="48" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2502,7 +2524,7 @@
       <c r="O48" s="2"/>
       <c r="Q48" s="13"/>
     </row>
-    <row r="49" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2520,7 +2542,7 @@
       <c r="O49" s="2"/>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2538,7 +2560,7 @@
       <c r="O50" s="2"/>
       <c r="Q50" s="13"/>
     </row>
-    <row r="51" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2556,7 +2578,7 @@
       <c r="O51" s="2"/>
       <c r="Q51" s="13"/>
     </row>
-    <row r="52" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2574,7 +2596,7 @@
       <c r="O52" s="2"/>
       <c r="Q52" s="13"/>
     </row>
-    <row r="53" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2592,7 +2614,7 @@
       <c r="O53" s="2"/>
       <c r="Q53" s="13"/>
     </row>
-    <row r="54" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2610,7 +2632,7 @@
       <c r="O54" s="2"/>
       <c r="Q54" s="13"/>
     </row>
-    <row r="55" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2628,7 +2650,7 @@
       <c r="O55" s="2"/>
       <c r="Q55" s="13"/>
     </row>
-    <row r="56" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2646,7 +2668,7 @@
       <c r="O56" s="2"/>
       <c r="Q56" s="13"/>
     </row>
-    <row r="57" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2664,7 +2686,7 @@
       <c r="O57" s="2"/>
       <c r="Q57" s="13"/>
     </row>
-    <row r="58" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2682,7 +2704,7 @@
       <c r="O58" s="2"/>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2700,7 +2722,7 @@
       <c r="O59" s="2"/>
       <c r="Q59" s="13"/>
     </row>
-    <row r="60" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2718,7 +2740,7 @@
       <c r="O60" s="2"/>
       <c r="Q60" s="13"/>
     </row>
-    <row r="61" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2736,7 +2758,7 @@
       <c r="O61" s="2"/>
       <c r="Q61" s="13"/>
     </row>
-    <row r="62" spans="1:17" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2756,6 +2778,74 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:N25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:N7"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="B4:C4"/>
@@ -2765,74 +2855,6 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:N27"/>
-    <mergeCell ref="O27:P27"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
